--- a/Project/Results/SS340_Project_ResultsSummary.xlsx
+++ b/Project/Results/SS340_Project_ResultsSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\.spyder-py3\SS340_Abdelwahed\Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F557D19-50BB-4143-93C8-60F2F86E6A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D1299-8622-4F36-A437-07B2DA2D78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BD707416-7642-4DB3-9659-E87C42C0AA26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="544" xr2:uid="{BD707416-7642-4DB3-9659-E87C42C0AA26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>const</t>
   </si>
@@ -87,13 +87,79 @@
     <t>(0.05)</t>
   </si>
   <si>
-    <t>disasters baseline</t>
-  </si>
-  <si>
-    <t>disasters lagged</t>
-  </si>
-  <si>
-    <t>disasters averaged</t>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>linear time</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>tempc(t-10)</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Baseline time trends</t>
+  </si>
+  <si>
+    <t>Lagged</t>
+  </si>
+  <si>
+    <t>Averaged</t>
+  </si>
+  <si>
+    <t>Baseline time FE</t>
+  </si>
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>-13.51***</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>0.12***</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>R-squared Adj.</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>-2.92***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.13) </t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
@@ -446,101 +512,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4327C92-FE10-4C08-9019-0217BFE095EE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Results/SS340_Project_ResultsSummary.xlsx
+++ b/Project/Results/SS340_Project_ResultsSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\.spyder-py3\SS340_Abdelwahed\Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D1299-8622-4F36-A437-07B2DA2D78C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA632A61-EDA6-4C88-B5B5-22B9FCC42A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="544" xr2:uid="{BD707416-7642-4DB3-9659-E87C42C0AA26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>const</t>
   </si>
@@ -160,6 +160,24 @@
   </si>
   <si>
     <t>0.14</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>Baseline both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.31) </t>
+  </si>
+  <si>
+    <t>Heteroskedastically robust standard errors in parentheses.</t>
+  </si>
+  <si>
+    <t>* p$&lt;$.1, ** p$&lt;$.05, ***p$&lt;$.01</t>
   </si>
 </sst>
 </file>
@@ -195,9 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4327C92-FE10-4C08-9019-0217BFE095EE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,9 +545,10 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -537,13 +559,16 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -559,8 +584,11 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -574,13 +602,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
@@ -591,13 +622,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -610,11 +644,14 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -624,24 +661,27 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -655,13 +695,16 @@
         <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -677,11 +720,14 @@
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -700,8 +746,11 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -720,8 +769,11 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -735,13 +787,65 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>208034</v>
+      </c>
+      <c r="C14">
+        <v>208034</v>
+      </c>
+      <c r="D14">
+        <v>208034</v>
+      </c>
+      <c r="E14">
+        <v>208034</v>
+      </c>
+      <c r="F14">
+        <v>176984</v>
+      </c>
+      <c r="G14">
+        <v>21735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Results/SS340_Project_ResultsSummary.xlsx
+++ b/Project/Results/SS340_Project_ResultsSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\.spyder-py3\SS340_Abdelwahed\Project\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA632A61-EDA6-4C88-B5B5-22B9FCC42A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7798DF4A-29A1-4472-8A99-50BE03812AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="544" xr2:uid="{BD707416-7642-4DB3-9659-E87C42C0AA26}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>const</t>
   </si>
@@ -171,13 +171,16 @@
     <t>Baseline both</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.31) </t>
-  </si>
-  <si>
     <t>Heteroskedastically robust standard errors in parentheses.</t>
   </si>
   <si>
     <t>* p$&lt;$.1, ** p$&lt;$.05, ***p$&lt;$.01</t>
+  </si>
+  <si>
+    <t>-0.58***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.02) </t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -622,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -832,7 +835,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
